--- a/src/test/resources/data/alldata.xlsx
+++ b/src/test/resources/data/alldata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/prabhu/dvla/vehicle-info-tests/src/test/resources/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CFED029-342D-3140-AC58-1CC7D4B2EFEB}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F48B2CA-F747-0A4C-A09D-5FDF0510398B}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2780" yWindow="1560" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,13 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
-  <si>
-    <t>Nissan</t>
-  </si>
-  <si>
-    <t>White</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
   <si>
     <t>Registration</t>
   </si>
@@ -46,30 +40,12 @@
     <t>GU62 OSX</t>
   </si>
   <si>
-    <t>Toyoto</t>
-  </si>
-  <si>
-    <t>Silver</t>
-  </si>
-  <si>
-    <t>Jeep</t>
-  </si>
-  <si>
-    <t>white</t>
-  </si>
-  <si>
     <t>LT15 LHB</t>
   </si>
   <si>
     <t>GU62 OSY</t>
   </si>
   <si>
-    <t>Honda</t>
-  </si>
-  <si>
-    <t>silver</t>
-  </si>
-  <si>
     <t>DACIA</t>
   </si>
   <si>
@@ -77,6 +53,27 @@
   </si>
   <si>
     <t>GU13 NRY</t>
+  </si>
+  <si>
+    <t>JEEP</t>
+  </si>
+  <si>
+    <t>TOYOTA</t>
+  </si>
+  <si>
+    <t>SILVER</t>
+  </si>
+  <si>
+    <t>MINI</t>
+  </si>
+  <si>
+    <t>BLACK</t>
+  </si>
+  <si>
+    <t>WHITE</t>
+  </si>
+  <si>
+    <t>HONDA</t>
   </si>
 </sst>
 </file>
@@ -940,11 +937,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -955,80 +950,83 @@
   <sheetData>
     <row r="1" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>15</v>
-      </c>
+    </row>
+    <row r="22" spans="2:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="B22" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
